--- a/target/classes/dataEngine/dataEngine.xlsx
+++ b/target/classes/dataEngine/dataEngine.xlsx
@@ -94,7 +94,7 @@
     <t>Data Set</t>
   </si>
   <si>
-    <t>chrome</t>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
